--- a/Danh sách.xlsx
+++ b/Danh sách.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -56,9 +56,6 @@
     <t>A104</t>
   </si>
   <si>
-    <t>A202</t>
-  </si>
-  <si>
     <t>B201</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
   </si>
   <si>
     <t>C303</t>
-  </si>
-  <si>
-    <t>P201</t>
-  </si>
-  <si>
-    <t>Hết</t>
   </si>
 </sst>
 </file>
@@ -451,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,13 +563,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -589,19 +580,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2">
         <v>2500000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -612,16 +603,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>2500000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -632,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -649,19 +640,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
         <v>3000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -672,56 +663,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2">
         <v>3000000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
